--- a/Data/all_australian_team.xlsx
+++ b/Data/all_australian_team.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Brownlow\brownlow_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Brownlow\brownlow_model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB08C2F-421F-4C5A-8590-16051133347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F800A0C-AC9F-46EA-8920-81DE78E77EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$441</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="241">
   <si>
     <t>AA_team</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Dustin Martin</t>
   </si>
   <si>
-    <t>Zachary Merrett</t>
-  </si>
-  <si>
     <t>Robbie Gray</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Corey Enright</t>
   </si>
   <si>
-    <t>Thomas J. Lynch</t>
-  </si>
-  <si>
     <t>Gold Coast</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Dane Swan</t>
   </si>
   <si>
-    <t>Nathan Fyfe</t>
-  </si>
-  <si>
     <t>Stephen Hill</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>Matthew Priddis</t>
   </si>
   <si>
-    <t>Luke Dalhaus</t>
-  </si>
-  <si>
     <t>Robert Murphy</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>Harry Taylor</t>
   </si>
   <si>
-    <t>Gary Jnr Ablett</t>
-  </si>
-  <si>
     <t>Luke Breust</t>
   </si>
   <si>
@@ -528,12 +513,6 @@
     <t>Adam Goodes</t>
   </si>
   <si>
-    <t>Nicholas Naitanui</t>
-  </si>
-  <si>
-    <t>Thomas Liberatore</t>
-  </si>
-  <si>
     <t>Christopher Mayne</t>
   </si>
   <si>
@@ -616,6 +595,171 @@
   </si>
   <si>
     <t>Paddy Ryder</t>
+  </si>
+  <si>
+    <t>Zach Merrett</t>
+  </si>
+  <si>
+    <t>Tom J. Lynch</t>
+  </si>
+  <si>
+    <t>Matt Priddis</t>
+  </si>
+  <si>
+    <t>Nat Fyfe</t>
+  </si>
+  <si>
+    <t>Nic Naitanui</t>
+  </si>
+  <si>
+    <t>Bachar Houli</t>
+  </si>
+  <si>
+    <t>Tim Kelly</t>
+  </si>
+  <si>
+    <t>Jack Darling</t>
+  </si>
+  <si>
+    <t>Charlie Cameron</t>
+  </si>
+  <si>
+    <t>Nick Haynes</t>
+  </si>
+  <si>
+    <t>Ben Cunnington</t>
+  </si>
+  <si>
+    <t>Dion Prestia</t>
+  </si>
+  <si>
+    <t>Josh Dunkley</t>
+  </si>
+  <si>
+    <t>Gary Ablett</t>
+  </si>
+  <si>
+    <t>Brad Sheppard</t>
+  </si>
+  <si>
+    <t>James Sicily</t>
+  </si>
+  <si>
+    <t>Hugh McCluggage</t>
+  </si>
+  <si>
+    <t>Luke Dahlhaus</t>
+  </si>
+  <si>
+    <t>Tom Liberatore</t>
+  </si>
+  <si>
+    <t>Jacob Weitering</t>
+  </si>
+  <si>
+    <t>Taylor Adams</t>
+  </si>
+  <si>
+    <t>Brayden Maynard</t>
+  </si>
+  <si>
+    <t>Darcy Moore</t>
+  </si>
+  <si>
+    <t>Jordan Ridley</t>
+  </si>
+  <si>
+    <t>Luke Ryan</t>
+  </si>
+  <si>
+    <t>Matt Taberner</t>
+  </si>
+  <si>
+    <t>Cameron Guthrie</t>
+  </si>
+  <si>
+    <t>Sam Menegola</t>
+  </si>
+  <si>
+    <t>Christian Petracca</t>
+  </si>
+  <si>
+    <t>Zak Butters</t>
+  </si>
+  <si>
+    <t>Darcy Byrne-Jones</t>
+  </si>
+  <si>
+    <t>Charlie Dixon</t>
+  </si>
+  <si>
+    <t>Nick Vlastuin</t>
+  </si>
+  <si>
+    <t>Dan Butler</t>
+  </si>
+  <si>
+    <t>Jack Steele</t>
+  </si>
+  <si>
+    <t>Tom Papley</t>
+  </si>
+  <si>
+    <t>Liam Ryan</t>
+  </si>
+  <si>
+    <t>Caleb Daniel</t>
+  </si>
+  <si>
+    <t>Paul Seedsman</t>
+  </si>
+  <si>
+    <t>Jarryd Lyons</t>
+  </si>
+  <si>
+    <t>Daniel Rich</t>
+  </si>
+  <si>
+    <t>Harry McKay</t>
+  </si>
+  <si>
+    <t>Sam Walsh</t>
+  </si>
+  <si>
+    <t>Sean Darcy</t>
+  </si>
+  <si>
+    <t>Touk Miller</t>
+  </si>
+  <si>
+    <t>Jacob Hopper</t>
+  </si>
+  <si>
+    <t>Bayley Fritsch</t>
+  </si>
+  <si>
+    <t>Steven May</t>
+  </si>
+  <si>
+    <t>Christian Salem</t>
+  </si>
+  <si>
+    <t>Karl Amon</t>
+  </si>
+  <si>
+    <t>Ollie Wines</t>
+  </si>
+  <si>
+    <t>Callum Mills</t>
+  </si>
+  <si>
+    <t>Bailey Dale</t>
+  </si>
+  <si>
+    <t>Darcy Parish</t>
+  </si>
+  <si>
+    <t>Aliir Aliir</t>
   </si>
 </sst>
 </file>
@@ -933,27 +1077,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J321"/>
+  <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -964,16 +1111,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -981,16 +1128,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -998,13 +1145,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1015,16 +1162,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1032,13 +1179,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1049,13 +1196,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1066,13 +1213,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1083,16 +1230,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1100,13 +1247,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1117,13 +1264,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1134,16 +1281,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1151,16 +1298,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1168,16 +1315,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1185,13 +1332,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1202,16 +1349,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1219,16 +1366,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1236,13 +1383,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1253,16 +1400,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1270,16 +1417,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1287,13 +1434,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1304,13 +1451,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1321,16 +1468,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1338,13 +1485,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1355,13 +1502,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1372,16 +1519,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1389,13 +1536,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1406,13 +1553,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1423,16 +1570,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1440,13 +1587,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1457,16 +1604,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1474,16 +1621,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1491,13 +1638,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1508,16 +1655,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1525,16 +1672,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1542,13 +1689,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1559,16 +1706,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1576,16 +1723,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1593,16 +1740,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1610,13 +1757,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1627,16 +1774,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1644,16 +1791,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1661,16 +1808,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1678,16 +1825,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1695,16 +1842,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1712,13 +1859,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1729,13 +1876,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1746,13 +1893,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1763,16 +1910,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1780,16 +1927,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1797,13 +1944,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1814,16 +1961,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1831,13 +1978,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1848,16 +1995,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1865,13 +2012,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1882,13 +2029,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1899,16 +2046,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1916,16 +2063,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1933,13 +2080,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1950,16 +2097,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1967,16 +2114,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1984,16 +2131,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2001,16 +2148,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2018,13 +2165,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2035,16 +2182,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2052,16 +2199,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2069,13 +2216,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2086,16 +2233,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2103,16 +2250,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2120,13 +2267,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2137,13 +2284,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2154,16 +2301,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2171,16 +2318,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2188,13 +2335,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2205,13 +2352,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2222,16 +2369,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2239,16 +2386,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2256,16 +2403,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2273,13 +2420,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2290,16 +2437,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2307,13 +2454,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2324,13 +2471,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2341,13 +2488,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2358,16 +2505,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2375,16 +2522,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2392,16 +2539,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2409,16 +2556,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2426,13 +2573,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2443,13 +2590,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2460,13 +2607,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2477,16 +2624,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2494,13 +2641,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2511,13 +2658,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2528,16 +2675,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2545,16 +2692,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2562,16 +2709,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2579,13 +2726,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2596,16 +2743,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2016</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>27</v>
+        <v>2019</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2613,13 +2760,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2630,13 +2777,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2647,16 +2794,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2664,13 +2811,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2681,16 +2828,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2698,16 +2845,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2715,16 +2862,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2732,13 +2879,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2749,13 +2896,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2766,13 +2913,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2783,16 +2930,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2800,16 +2947,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2817,13 +2964,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C111" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2834,16 +2981,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2851,13 +2998,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2868,16 +3015,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2885,16 +3032,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2902,13 +3049,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2919,13 +3066,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2936,16 +3083,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -2953,13 +3100,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2970,16 +3117,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -2987,13 +3134,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3004,13 +3151,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3021,16 +3168,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3038,16 +3185,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3055,13 +3202,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3072,13 +3219,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3089,13 +3236,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3106,16 +3253,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3123,13 +3270,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3140,13 +3287,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3157,16 +3304,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3174,16 +3321,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3191,16 +3338,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3208,16 +3355,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3225,16 +3372,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3242,16 +3389,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3259,13 +3406,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3276,16 +3423,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3293,16 +3440,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3310,16 +3457,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3327,13 +3474,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3344,16 +3491,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -3361,16 +3508,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3378,16 +3525,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3395,16 +3542,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -3412,13 +3559,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3429,13 +3576,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -3446,13 +3593,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3463,16 +3610,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -3480,16 +3627,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -3497,16 +3644,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -3514,16 +3661,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3531,13 +3678,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -3548,13 +3695,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3565,16 +3712,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -3582,16 +3729,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -3599,16 +3746,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -3616,13 +3763,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3633,16 +3780,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -3650,16 +3797,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -3667,16 +3814,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -3684,13 +3831,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3701,16 +3848,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -3718,16 +3865,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -3735,16 +3882,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -3752,16 +3899,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -3769,10 +3916,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
@@ -3786,16 +3933,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -3803,13 +3950,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3820,13 +3967,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3837,13 +3984,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3854,16 +4001,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -3871,16 +4018,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -3888,13 +4035,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3905,16 +4052,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -3922,13 +4069,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -3939,16 +4086,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -3956,13 +4103,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -3973,16 +4120,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -3990,13 +4137,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4007,16 +4154,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -4024,16 +4171,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4041,16 +4188,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -4058,13 +4205,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4075,16 +4222,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -4092,13 +4239,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4109,13 +4256,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4126,13 +4273,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4143,13 +4290,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="C189" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4160,13 +4307,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4177,16 +4324,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C191" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -4194,13 +4341,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4211,13 +4358,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4228,13 +4375,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4245,16 +4392,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -4262,13 +4409,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4279,16 +4426,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -4296,16 +4443,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -4313,16 +4460,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -4330,13 +4477,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="C200" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -4347,16 +4494,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -4364,13 +4511,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -4381,13 +4528,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4398,13 +4545,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="C204" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -4415,16 +4562,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -4432,13 +4579,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -4449,16 +4596,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -4466,13 +4613,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4483,13 +4630,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4500,13 +4647,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -4517,16 +4664,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -4534,16 +4681,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -4551,16 +4698,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -4568,13 +4715,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4585,13 +4732,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -4602,13 +4749,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C216" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -4619,16 +4766,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -4636,13 +4783,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4653,13 +4800,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4670,16 +4817,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -4687,13 +4834,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4704,13 +4851,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -4721,13 +4868,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -4738,13 +4885,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -4755,16 +4902,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -4772,16 +4919,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -4789,13 +4936,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C227" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4806,16 +4953,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -4823,16 +4970,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -4840,13 +4987,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -4857,13 +5004,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4874,16 +5021,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -4891,13 +5038,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C233" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -4908,13 +5055,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4925,13 +5072,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C235" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -4942,16 +5089,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C236" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -4959,16 +5106,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -4976,16 +5123,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C238" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -4993,16 +5140,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -5010,13 +5157,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C240" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5027,13 +5174,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -5044,16 +5191,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -5061,13 +5208,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="C243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5078,13 +5225,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -5095,16 +5242,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -5112,13 +5259,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C246" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -5129,16 +5276,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -5146,13 +5293,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -5163,13 +5310,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5180,16 +5327,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C250" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -5197,16 +5344,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -5214,16 +5361,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C252" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -5231,13 +5378,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -5248,13 +5395,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C254" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5265,16 +5412,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -5282,16 +5429,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C256" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -5299,13 +5446,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -5316,13 +5463,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -5333,13 +5480,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5350,16 +5497,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C260" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -5367,16 +5514,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -5384,13 +5531,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -5401,13 +5548,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -5418,16 +5565,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C264" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -5435,16 +5582,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -5452,13 +5599,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -5469,16 +5616,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C267" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -5486,16 +5633,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -5503,16 +5650,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -5520,13 +5667,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -5537,13 +5684,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -5554,16 +5701,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -5571,16 +5718,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -5588,13 +5735,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -5605,13 +5752,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C275" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5622,16 +5769,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C276" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -5639,16 +5786,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -5656,13 +5803,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -5673,16 +5820,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="C279" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -5690,13 +5837,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C280" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -5707,13 +5854,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C281" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -5724,13 +5871,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="C282" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -5741,16 +5888,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C283" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -5758,13 +5905,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -5775,16 +5922,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="C285" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -5792,16 +5939,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -5809,16 +5956,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -5826,16 +5973,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -5843,13 +5990,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -5860,13 +6007,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C290" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -5877,16 +6024,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C291" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -5894,13 +6041,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -5911,13 +6058,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -5928,13 +6075,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C294" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -5945,13 +6092,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -5962,13 +6109,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C296" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -5979,13 +6126,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -5996,13 +6143,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C298" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -6013,16 +6160,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>2011</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>151</v>
+        <v>2014</v>
+      </c>
+      <c r="B299" t="s">
+        <v>199</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -6030,16 +6177,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C300" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -6047,13 +6194,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C301" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -6064,16 +6211,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -6081,16 +6228,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -6098,13 +6245,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -6115,16 +6262,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C305" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -6132,13 +6279,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C306" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -6149,16 +6296,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -6166,13 +6313,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -6183,16 +6330,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -6200,13 +6347,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="C310" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6217,13 +6364,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C311" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -6234,16 +6381,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="C312" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -6251,13 +6398,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C313" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -6268,16 +6415,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="C314" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -6285,13 +6432,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -6302,16 +6449,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C316" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -6319,16 +6466,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -6336,13 +6483,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C318" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -6353,13 +6500,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C319" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -6370,13 +6517,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="C320" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -6387,18 +6534,2058 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
+        <v>2014</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C321" t="s">
+        <v>51</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2013</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2013</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2013</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C324" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2013</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C325" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2013</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2013</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C327" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2013</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C328" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2013</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C329" t="s">
+        <v>57</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2013</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C330" t="s">
+        <v>57</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2013</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C331" t="s">
+        <v>57</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2013</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C332" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2013</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2013</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2013</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2013</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2013</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2013</v>
+      </c>
+      <c r="B338" t="s">
+        <v>199</v>
+      </c>
+      <c r="C338" t="s">
+        <v>59</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2013</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C339" t="s">
+        <v>179</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2013</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C340" t="s">
+        <v>24</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2013</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C341" t="s">
+        <v>24</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2013</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>24</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2013</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C343" t="s">
+        <v>24</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2013</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C344" t="s">
+        <v>24</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2013</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C345" t="s">
+        <v>47</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2013</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C346" t="s">
+        <v>47</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2013</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C347" t="s">
+        <v>47</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2013</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C348" t="s">
+        <v>47</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2013</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C349" t="s">
+        <v>21</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2013</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C350" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2013</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C351" t="s">
+        <v>46</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2013</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C352" t="s">
+        <v>46</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2013</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C353" t="s">
+        <v>22</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2013</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C354" t="s">
+        <v>22</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2013</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C355" t="s">
+        <v>22</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2013</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C356" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2013</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C357" t="s">
+        <v>22</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2013</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C358" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2013</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2013</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C360" t="s">
+        <v>51</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2013</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" t="s">
+        <v>51</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2012</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C362" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2012</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C363" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2012</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2012</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2012</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C366" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2012</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2012</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C368" t="s">
+        <v>48</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2012</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C369" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2012</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C370" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2012</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C371" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2012</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C372" t="s">
+        <v>57</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2012</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C373" t="s">
+        <v>57</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2012</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2012</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2012</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2012</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2012</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2012</v>
+      </c>
+      <c r="B379" t="s">
+        <v>199</v>
+      </c>
+      <c r="C379" t="s">
+        <v>59</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2012</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C380" t="s">
+        <v>24</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2012</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C381" t="s">
+        <v>24</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2012</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" t="s">
+        <v>24</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2012</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C383" t="s">
+        <v>24</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2012</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C384" t="s">
+        <v>47</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2012</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C385" t="s">
+        <v>47</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2012</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C386" t="s">
+        <v>16</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2012</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C387" t="s">
+        <v>16</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2012</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C388" t="s">
+        <v>16</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2012</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C389" t="s">
+        <v>16</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2012</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C390" t="s">
+        <v>46</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2012</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C391" t="s">
+        <v>46</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2012</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C392" t="s">
+        <v>46</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2012</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C393" t="s">
+        <v>46</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2012</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C394" t="s">
+        <v>22</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2012</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C395" t="s">
+        <v>22</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2012</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C396" t="s">
+        <v>22</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2012</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C397" t="s">
+        <v>22</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2012</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2012</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2012</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C400" t="s">
+        <v>17</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2012</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C401" t="s">
+        <v>17</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>2011</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C321" t="s">
-        <v>49</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
-      </c>
-      <c r="E321">
+      <c r="B402" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C402" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2011</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C403" t="s">
+        <v>19</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2011</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C404" t="s">
+        <v>19</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2011</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C405" t="s">
+        <v>19</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2011</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C406" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2011</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C407" t="s">
+        <v>48</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2011</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C408" t="s">
+        <v>48</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2011</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C409" t="s">
+        <v>48</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2011</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C410" t="s">
+        <v>48</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2011</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C411" t="s">
+        <v>48</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2011</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C412" t="s">
+        <v>48</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2011</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C413" t="s">
+        <v>57</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2011</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C414" t="s">
+        <v>57</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2011</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C415" t="s">
+        <v>28</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2011</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C416" t="s">
+        <v>28</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2011</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2011</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418" t="s">
+        <v>28</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2011</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C419" t="s">
+        <v>28</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2011</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C420" t="s">
+        <v>28</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2011</v>
+      </c>
+      <c r="B421" t="s">
+        <v>199</v>
+      </c>
+      <c r="C421" t="s">
+        <v>59</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2011</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C422" t="s">
+        <v>24</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2011</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C423" t="s">
+        <v>24</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2011</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" t="s">
+        <v>24</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2011</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C425" t="s">
+        <v>24</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2011</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C426" t="s">
+        <v>47</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2011</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C427" t="s">
+        <v>47</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2011</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C428" t="s">
+        <v>47</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2011</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C429" t="s">
+        <v>47</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2011</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C430" t="s">
+        <v>16</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2011</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C431" t="s">
+        <v>46</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2011</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C432" t="s">
+        <v>46</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2011</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C433" t="s">
+        <v>46</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2011</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C434" t="s">
+        <v>22</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2011</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2011</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C436" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2011</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C437" t="s">
+        <v>17</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2011</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" t="s">
+        <v>17</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2011</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C439" t="s">
+        <v>17</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2011</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C440" t="s">
+        <v>51</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2011</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C441" t="s">
+        <v>51</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
         <v>1</v>
       </c>
     </row>

--- a/Data/all_australian_team.xlsx
+++ b/Data/all_australian_team.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Brownlow\brownlow_model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F800A0C-AC9F-46EA-8920-81DE78E77EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375C842-34F6-4D5D-9931-296C8E100DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="241">
   <si>
-    <t>AA_team</t>
-  </si>
-  <si>
-    <t>AA_squad</t>
-  </si>
-  <si>
     <t>Michael Hibberd</t>
   </si>
   <si>
@@ -760,6 +754,12 @@
   </si>
   <si>
     <t>Aliir Aliir</t>
+  </si>
+  <si>
+    <t>aa_team</t>
+  </si>
+  <si>
+    <t>aa_squad</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,19 +1094,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2021</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>2021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1216,10 +1216,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1250,10 +1250,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1267,10 +1267,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1318,10 +1318,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1386,10 +1386,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1403,10 +1403,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1437,10 +1437,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>2021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>2021</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1539,10 +1539,10 @@
         <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>2021</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1573,10 +1573,10 @@
         <v>2021</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1607,10 +1607,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1658,10 +1658,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>2021</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>2021</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1709,10 +1709,10 @@
         <v>2021</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>2021</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         <v>2021</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1760,10 +1760,10 @@
         <v>2021</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1777,10 +1777,10 @@
         <v>2021</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1794,10 +1794,10 @@
         <v>2020</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1811,10 +1811,10 @@
         <v>2020</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>2020</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1845,10 +1845,10 @@
         <v>2020</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>2020</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>2020</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>2020</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>2020</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>2020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>2020</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1981,10 +1981,10 @@
         <v>2020</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>2020</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>2020</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2032,10 +2032,10 @@
         <v>2020</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>2020</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2066,10 +2066,10 @@
         <v>2020</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>2020</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2100,10 +2100,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>2020</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2134,10 +2134,10 @@
         <v>2020</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>2020</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>2020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         <v>2020</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>2020</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>2020</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>2020</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>2020</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>2020</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2287,10 +2287,10 @@
         <v>2020</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>2020</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>2020</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2338,10 +2338,10 @@
         <v>2020</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>2020</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2389,10 +2389,10 @@
         <v>2020</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>2020</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         <v>2020</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2440,10 +2440,10 @@
         <v>2020</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         <v>2020</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2474,10 +2474,10 @@
         <v>2019</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>2019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>2019</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2525,10 +2525,10 @@
         <v>2019</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2542,10 +2542,10 @@
         <v>2019</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>2019</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>2019</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2593,10 +2593,10 @@
         <v>2019</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2610,10 +2610,10 @@
         <v>2019</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2627,10 +2627,10 @@
         <v>2019</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>2019</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2661,10 +2661,10 @@
         <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2678,10 +2678,10 @@
         <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2695,10 +2695,10 @@
         <v>2019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2712,10 +2712,10 @@
         <v>2019</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>2019</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2746,10 +2746,10 @@
         <v>2019</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>2019</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>2019</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2797,10 +2797,10 @@
         <v>2019</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2831,10 +2831,10 @@
         <v>2019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>2019</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>2019</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>2019</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>2019</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2916,10 +2916,10 @@
         <v>2019</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2933,10 +2933,10 @@
         <v>2019</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>2019</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>2019</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>2019</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         <v>2019</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3018,10 +3018,10 @@
         <v>2019</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3035,10 +3035,10 @@
         <v>2019</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3052,10 +3052,10 @@
         <v>2019</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>2019</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>2019</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>2019</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3120,10 +3120,10 @@
         <v>2019</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3137,10 +3137,10 @@
         <v>2019</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>2018</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3171,10 +3171,10 @@
         <v>2018</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>2018</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>2018</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3222,10 +3222,10 @@
         <v>2018</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3239,10 +3239,10 @@
         <v>2018</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>2018</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         <v>2018</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3290,10 +3290,10 @@
         <v>2018</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>2018</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>2018</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>2018</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3358,10 +3358,10 @@
         <v>2018</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>2018</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -3392,10 +3392,10 @@
         <v>2018</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>2018</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3426,10 +3426,10 @@
         <v>2018</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3443,10 +3443,10 @@
         <v>2018</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -3460,10 +3460,10 @@
         <v>2018</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>2018</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3494,10 +3494,10 @@
         <v>2018</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3511,10 +3511,10 @@
         <v>2018</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3528,10 +3528,10 @@
         <v>2018</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3545,10 +3545,10 @@
         <v>2018</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -3562,10 +3562,10 @@
         <v>2018</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>2018</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -3596,10 +3596,10 @@
         <v>2018</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3613,10 +3613,10 @@
         <v>2018</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>2018</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -3647,10 +3647,10 @@
         <v>2018</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>2018</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -3698,10 +3698,10 @@
         <v>2018</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>2018</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>2018</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>2018</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3766,10 +3766,10 @@
         <v>2018</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3783,10 +3783,10 @@
         <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -3800,10 +3800,10 @@
         <v>2018</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -3817,10 +3817,10 @@
         <v>2018</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>2017</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3851,10 +3851,10 @@
         <v>2017</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>2017</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3885,10 +3885,10 @@
         <v>2017</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3902,10 +3902,10 @@
         <v>2017</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>2017</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>2017</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>2017</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3987,10 +3987,10 @@
         <v>2017</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>2017</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4021,10 +4021,10 @@
         <v>2017</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C173" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>2017</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         <v>2017</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4072,10 +4072,10 @@
         <v>2017</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4089,10 +4089,10 @@
         <v>2017</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4106,10 +4106,10 @@
         <v>2017</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
         <v>26</v>
-      </c>
-      <c r="C178" t="s">
-        <v>28</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4123,10 +4123,10 @@
         <v>2017</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4140,10 +4140,10 @@
         <v>2017</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4157,10 +4157,10 @@
         <v>2017</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4174,10 +4174,10 @@
         <v>2017</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>2017</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>2017</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4225,10 +4225,10 @@
         <v>2017</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>2017</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4259,10 +4259,10 @@
         <v>2017</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>2017</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>2017</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4310,10 +4310,10 @@
         <v>2017</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>2017</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>2017</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4361,10 +4361,10 @@
         <v>2017</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4378,10 +4378,10 @@
         <v>2017</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>2017</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C195" t="s">
         <v>44</v>
-      </c>
-      <c r="C195" t="s">
-        <v>46</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>2017</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>2017</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>2017</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         <v>2017</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4480,10 +4480,10 @@
         <v>2017</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -4497,10 +4497,10 @@
         <v>2017</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>2016</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -4531,10 +4531,10 @@
         <v>2016</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4548,10 +4548,10 @@
         <v>2016</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>2016</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -4582,10 +4582,10 @@
         <v>2016</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -4599,10 +4599,10 @@
         <v>2016</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>2016</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4633,10 +4633,10 @@
         <v>2016</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4650,10 +4650,10 @@
         <v>2016</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -4667,10 +4667,10 @@
         <v>2016</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C211" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         <v>2016</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -4701,10 +4701,10 @@
         <v>2016</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -4718,10 +4718,10 @@
         <v>2016</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
         <v>26</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4735,10 +4735,10 @@
         <v>2016</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -4752,10 +4752,10 @@
         <v>2016</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -4769,10 +4769,10 @@
         <v>2016</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C217" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>2016</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C218" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4803,10 +4803,10 @@
         <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C219" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>2016</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -4837,10 +4837,10 @@
         <v>2016</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C221" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>2016</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -4871,10 +4871,10 @@
         <v>2016</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -4888,10 +4888,10 @@
         <v>2016</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -4905,10 +4905,10 @@
         <v>2016</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4922,10 +4922,10 @@
         <v>2016</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -4939,10 +4939,10 @@
         <v>2016</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         <v>2016</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4973,10 +4973,10 @@
         <v>2016</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4990,10 +4990,10 @@
         <v>2016</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C230" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>2016</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -5024,10 +5024,10 @@
         <v>2016</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -5041,10 +5041,10 @@
         <v>2016</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -5058,10 +5058,10 @@
         <v>2016</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -5075,10 +5075,10 @@
         <v>2016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -5092,10 +5092,10 @@
         <v>2016</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -5109,10 +5109,10 @@
         <v>2016</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -5126,10 +5126,10 @@
         <v>2016</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         <v>2016</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>2016</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C240" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5177,10 +5177,10 @@
         <v>2016</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C241" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -5194,10 +5194,10 @@
         <v>2015</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5211,10 +5211,10 @@
         <v>2015</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5228,10 +5228,10 @@
         <v>2015</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>2015</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -5262,10 +5262,10 @@
         <v>2015</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C246" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -5279,10 +5279,10 @@
         <v>2015</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C247" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -5296,10 +5296,10 @@
         <v>2015</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -5313,10 +5313,10 @@
         <v>2015</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C249" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5330,10 +5330,10 @@
         <v>2015</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C250" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>2015</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -5364,10 +5364,10 @@
         <v>2015</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -5381,10 +5381,10 @@
         <v>2015</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C253" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         <v>2015</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C254" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5415,10 +5415,10 @@
         <v>2015</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C255" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -5432,10 +5432,10 @@
         <v>2015</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>2015</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -5466,10 +5466,10 @@
         <v>2015</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -5483,10 +5483,10 @@
         <v>2015</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5500,10 +5500,10 @@
         <v>2015</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -5517,10 +5517,10 @@
         <v>2015</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -5534,10 +5534,10 @@
         <v>2015</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C262" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>2015</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C263" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -5568,10 +5568,10 @@
         <v>2015</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -5585,10 +5585,10 @@
         <v>2015</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -5602,10 +5602,10 @@
         <v>2015</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -5619,10 +5619,10 @@
         <v>2015</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -5636,10 +5636,10 @@
         <v>2015</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -5653,10 +5653,10 @@
         <v>2015</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -5670,10 +5670,10 @@
         <v>2015</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -5687,10 +5687,10 @@
         <v>2015</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>2015</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C272" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>2015</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -5738,10 +5738,10 @@
         <v>2015</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C274" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -5755,10 +5755,10 @@
         <v>2015</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C275" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>2015</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -5789,10 +5789,10 @@
         <v>2015</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C277" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -5806,10 +5806,10 @@
         <v>2015</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C278" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         <v>2015</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C279" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -5840,10 +5840,10 @@
         <v>2015</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C280" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         <v>2015</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -5874,10 +5874,10 @@
         <v>2014</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -5891,10 +5891,10 @@
         <v>2014</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -5908,10 +5908,10 @@
         <v>2014</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -5925,10 +5925,10 @@
         <v>2014</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -5942,10 +5942,10 @@
         <v>2014</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C286" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -5959,10 +5959,10 @@
         <v>2014</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>2014</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C288" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -5993,10 +5993,10 @@
         <v>2014</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C289" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -6010,10 +6010,10 @@
         <v>2014</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>2014</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -6044,10 +6044,10 @@
         <v>2014</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C292" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -6061,10 +6061,10 @@
         <v>2014</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C293" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -6078,10 +6078,10 @@
         <v>2014</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C294" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -6095,10 +6095,10 @@
         <v>2014</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C295" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -6112,10 +6112,10 @@
         <v>2014</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C296" t="s">
         <v>26</v>
-      </c>
-      <c r="C296" t="s">
-        <v>28</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -6129,10 +6129,10 @@
         <v>2014</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -6146,10 +6146,10 @@
         <v>2014</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -6163,10 +6163,10 @@
         <v>2014</v>
       </c>
       <c r="B299" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C299" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -6180,10 +6180,10 @@
         <v>2014</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C300" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -6197,10 +6197,10 @@
         <v>2014</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C301" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -6214,10 +6214,10 @@
         <v>2014</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -6231,10 +6231,10 @@
         <v>2014</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -6248,10 +6248,10 @@
         <v>2014</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -6265,10 +6265,10 @@
         <v>2014</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -6282,10 +6282,10 @@
         <v>2014</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C306" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -6299,10 +6299,10 @@
         <v>2014</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -6316,10 +6316,10 @@
         <v>2014</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v>2014</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -6350,10 +6350,10 @@
         <v>2014</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6367,10 +6367,10 @@
         <v>2014</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C311" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -6384,10 +6384,10 @@
         <v>2014</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>2014</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C313" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -6418,10 +6418,10 @@
         <v>2014</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>2014</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>2014</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -6469,10 +6469,10 @@
         <v>2014</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6486,10 +6486,10 @@
         <v>2014</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         <v>2014</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C319" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -6520,10 +6520,10 @@
         <v>2014</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C320" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -6537,10 +6537,10 @@
         <v>2014</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C321" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -6554,10 +6554,10 @@
         <v>2013</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -6571,10 +6571,10 @@
         <v>2013</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C323" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -6588,10 +6588,10 @@
         <v>2013</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C324" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -6605,10 +6605,10 @@
         <v>2013</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C325" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -6622,10 +6622,10 @@
         <v>2013</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C326" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -6639,10 +6639,10 @@
         <v>2013</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C327" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -6656,10 +6656,10 @@
         <v>2013</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -6673,10 +6673,10 @@
         <v>2013</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C329" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>2013</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C330" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -6707,10 +6707,10 @@
         <v>2013</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C331" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>2013</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C332" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>2013</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -6758,10 +6758,10 @@
         <v>2013</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>2013</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -6792,10 +6792,10 @@
         <v>2013</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" t="s">
         <v>26</v>
-      </c>
-      <c r="C336" t="s">
-        <v>28</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -6809,10 +6809,10 @@
         <v>2013</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -6826,10 +6826,10 @@
         <v>2013</v>
       </c>
       <c r="B338" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C338" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -6843,10 +6843,10 @@
         <v>2013</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C339" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -6860,10 +6860,10 @@
         <v>2013</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -6877,10 +6877,10 @@
         <v>2013</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -6894,10 +6894,10 @@
         <v>2013</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -6911,10 +6911,10 @@
         <v>2013</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -6928,10 +6928,10 @@
         <v>2013</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -6945,10 +6945,10 @@
         <v>2013</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C345" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -6962,10 +6962,10 @@
         <v>2013</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C346" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>2013</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C347" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -6996,10 +6996,10 @@
         <v>2013</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C348" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -7013,10 +7013,10 @@
         <v>2013</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -7030,10 +7030,10 @@
         <v>2013</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -7047,10 +7047,10 @@
         <v>2013</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C351" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -7064,10 +7064,10 @@
         <v>2013</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C352" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -7081,10 +7081,10 @@
         <v>2013</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C353" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -7098,10 +7098,10 @@
         <v>2013</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C354" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -7115,10 +7115,10 @@
         <v>2013</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C355" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -7132,10 +7132,10 @@
         <v>2013</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C356" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -7149,10 +7149,10 @@
         <v>2013</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         <v>2013</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C358" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>2013</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>2013</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C360" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -7217,10 +7217,10 @@
         <v>2013</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C361" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>2012</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C362" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -7251,10 +7251,10 @@
         <v>2012</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C363" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -7268,10 +7268,10 @@
         <v>2012</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C364" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -7285,10 +7285,10 @@
         <v>2012</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C365" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -7302,10 +7302,10 @@
         <v>2012</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C366" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -7319,10 +7319,10 @@
         <v>2012</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -7336,10 +7336,10 @@
         <v>2012</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C368" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -7353,10 +7353,10 @@
         <v>2012</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C369" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -7370,10 +7370,10 @@
         <v>2012</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C370" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -7387,10 +7387,10 @@
         <v>2012</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C371" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -7404,10 +7404,10 @@
         <v>2012</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C372" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -7421,10 +7421,10 @@
         <v>2012</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C373" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -7438,10 +7438,10 @@
         <v>2012</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C374" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -7455,10 +7455,10 @@
         <v>2012</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C375" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -7472,10 +7472,10 @@
         <v>2012</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376" t="s">
         <v>26</v>
-      </c>
-      <c r="C376" t="s">
-        <v>28</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -7489,10 +7489,10 @@
         <v>2012</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C377" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -7506,10 +7506,10 @@
         <v>2012</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C378" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -7523,10 +7523,10 @@
         <v>2012</v>
       </c>
       <c r="B379" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C379" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -7540,10 +7540,10 @@
         <v>2012</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C380" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -7557,10 +7557,10 @@
         <v>2012</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -7574,10 +7574,10 @@
         <v>2012</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -7591,10 +7591,10 @@
         <v>2012</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C383" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         <v>2012</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C384" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -7625,10 +7625,10 @@
         <v>2012</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C385" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>2012</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C386" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -7659,10 +7659,10 @@
         <v>2012</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C387" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>2012</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C388" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -7693,10 +7693,10 @@
         <v>2012</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C389" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -7710,10 +7710,10 @@
         <v>2012</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C390" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -7727,10 +7727,10 @@
         <v>2012</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C391" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         <v>2012</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C392" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>2012</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C393" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -7778,10 +7778,10 @@
         <v>2012</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C394" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -7795,10 +7795,10 @@
         <v>2012</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C395" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -7812,10 +7812,10 @@
         <v>2012</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C396" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -7829,10 +7829,10 @@
         <v>2012</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C397" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -7846,10 +7846,10 @@
         <v>2012</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C398" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         <v>2012</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C399" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -7880,10 +7880,10 @@
         <v>2012</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C400" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -7897,10 +7897,10 @@
         <v>2012</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C401" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7914,10 +7914,10 @@
         <v>2011</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C402" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -7931,10 +7931,10 @@
         <v>2011</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C403" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -7948,10 +7948,10 @@
         <v>2011</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C404" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>2011</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C405" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -7982,10 +7982,10 @@
         <v>2011</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C406" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -7999,10 +7999,10 @@
         <v>2011</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C407" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -8016,10 +8016,10 @@
         <v>2011</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C408" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -8033,10 +8033,10 @@
         <v>2011</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C409" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -8050,10 +8050,10 @@
         <v>2011</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C410" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -8067,10 +8067,10 @@
         <v>2011</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C411" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -8084,10 +8084,10 @@
         <v>2011</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C412" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -8101,10 +8101,10 @@
         <v>2011</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C413" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -8118,10 +8118,10 @@
         <v>2011</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C414" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -8135,10 +8135,10 @@
         <v>2011</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C415" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8152,10 +8152,10 @@
         <v>2011</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C416" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -8169,10 +8169,10 @@
         <v>2011</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C417" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -8186,10 +8186,10 @@
         <v>2011</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C418" t="s">
         <v>26</v>
-      </c>
-      <c r="C418" t="s">
-        <v>28</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -8203,10 +8203,10 @@
         <v>2011</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C419" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -8220,10 +8220,10 @@
         <v>2011</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C420" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>2011</v>
       </c>
       <c r="B421" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C421" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -8254,10 +8254,10 @@
         <v>2011</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C422" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -8271,10 +8271,10 @@
         <v>2011</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C423" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>2011</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C424" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -8305,10 +8305,10 @@
         <v>2011</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C425" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -8322,10 +8322,10 @@
         <v>2011</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C426" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -8339,10 +8339,10 @@
         <v>2011</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C427" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -8356,10 +8356,10 @@
         <v>2011</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C428" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -8373,10 +8373,10 @@
         <v>2011</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C429" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -8390,10 +8390,10 @@
         <v>2011</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C430" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>2011</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C431" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -8424,10 +8424,10 @@
         <v>2011</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C432" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -8441,10 +8441,10 @@
         <v>2011</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C433" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -8458,10 +8458,10 @@
         <v>2011</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C434" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -8475,10 +8475,10 @@
         <v>2011</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C435" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -8492,10 +8492,10 @@
         <v>2011</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C436" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -8509,10 +8509,10 @@
         <v>2011</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C437" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -8526,10 +8526,10 @@
         <v>2011</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C438" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>2011</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C439" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -8560,10 +8560,10 @@
         <v>2011</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C440" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -8577,10 +8577,10 @@
         <v>2011</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C441" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D441">
         <v>1</v>
